--- a/data/pca/factorExposure/factorExposure_2016-08-31.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-08-31.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +711,76 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.006704827566931883</v>
+        <v>0.01299091084164002</v>
       </c>
       <c r="C2">
-        <v>0.05425057535337178</v>
+        <v>0.04378912524828724</v>
       </c>
       <c r="D2">
-        <v>-0.03408163331030526</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06540541714748381</v>
+      </c>
+      <c r="E2">
+        <v>0.05068285637794295</v>
+      </c>
+      <c r="F2">
+        <v>-0.08162352722869085</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>-0.05889371138539309</v>
+        <v>0.03041024831933838</v>
       </c>
       <c r="C3">
-        <v>0.09065934258428616</v>
+        <v>0.08114246124976551</v>
       </c>
       <c r="D3">
-        <v>-0.08079714720859023</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.09242147758397273</v>
+      </c>
+      <c r="E3">
+        <v>0.05907993858534048</v>
+      </c>
+      <c r="F3">
+        <v>-0.01319272858113873</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.06121472197714313</v>
+        <v>0.0572219215854896</v>
       </c>
       <c r="C4">
-        <v>0.06101064635859565</v>
+        <v>0.06659519200635472</v>
       </c>
       <c r="D4">
-        <v>-0.02485510659269108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05954991662728681</v>
+      </c>
+      <c r="E4">
+        <v>0.04912481153248258</v>
+      </c>
+      <c r="F4">
+        <v>-0.08813117808074256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.03546204121161945</v>
+        <v>0.03401908423032911</v>
       </c>
       <c r="C6">
-        <v>0.03734497589611385</v>
+        <v>0.03401884942370464</v>
       </c>
       <c r="D6">
-        <v>-0.03078094105657346</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06746769080276448</v>
+      </c>
+      <c r="E6">
+        <v>0.05911039061294641</v>
+      </c>
+      <c r="F6">
+        <v>-0.07232000043577734</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.01940447563356318</v>
+        <v>0.01920233766586796</v>
       </c>
       <c r="C7">
-        <v>0.04016637866842208</v>
+        <v>0.03793272264666105</v>
       </c>
       <c r="D7">
-        <v>0.003686829478990917</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03732881733281577</v>
+      </c>
+      <c r="E7">
+        <v>0.03078288549046623</v>
+      </c>
+      <c r="F7">
+        <v>-0.1081779336320144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.002058223228163956</v>
+        <v>0.003551661222823716</v>
       </c>
       <c r="C8">
-        <v>0.02340827514117206</v>
+        <v>0.0279315457217778</v>
       </c>
       <c r="D8">
-        <v>-0.03290589405292566</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03613416899220777</v>
+      </c>
+      <c r="E8">
+        <v>0.0408816345346832</v>
+      </c>
+      <c r="F8">
+        <v>-0.05049000827032839</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.0321256267618457</v>
+        <v>0.03624023178024845</v>
       </c>
       <c r="C9">
-        <v>0.0437605144795529</v>
+        <v>0.05257152613125267</v>
       </c>
       <c r="D9">
-        <v>-0.01303666741587005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04494835808945595</v>
+      </c>
+      <c r="E9">
+        <v>0.04197161984150066</v>
+      </c>
+      <c r="F9">
+        <v>-0.09203486448051719</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.07239402186897205</v>
+        <v>0.1000054131531113</v>
       </c>
       <c r="C10">
-        <v>-0.1929847436080978</v>
+        <v>-0.1937012345313281</v>
       </c>
       <c r="D10">
-        <v>-0.005152498961260438</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.0007657206991923844</v>
+      </c>
+      <c r="E10">
+        <v>0.04566650477261169</v>
+      </c>
+      <c r="F10">
+        <v>-0.04035480925845303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.03724497824385413</v>
+        <v>0.03595427965887357</v>
       </c>
       <c r="C11">
-        <v>0.05491387736409326</v>
+        <v>0.05156719459725063</v>
       </c>
       <c r="D11">
-        <v>-0.006266630119316213</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03420619863632936</v>
+      </c>
+      <c r="E11">
+        <v>0.004917906393310502</v>
+      </c>
+      <c r="F11">
+        <v>-0.06651277553422023</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.03434291362868342</v>
+        <v>0.0366489035036609</v>
       </c>
       <c r="C12">
-        <v>0.04691723925403896</v>
+        <v>0.04774436885628605</v>
       </c>
       <c r="D12">
-        <v>-0.002004755781128078</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02561122452591186</v>
+      </c>
+      <c r="E12">
+        <v>0.01405447070482236</v>
+      </c>
+      <c r="F12">
+        <v>-0.06951997243269818</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.01169563748562769</v>
+        <v>0.0120386659456963</v>
       </c>
       <c r="C13">
-        <v>0.04221444840327426</v>
+        <v>0.04179774835427498</v>
       </c>
       <c r="D13">
-        <v>-0.01650418010039422</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.0625957849731537</v>
+      </c>
+      <c r="E13">
+        <v>0.06069704926759336</v>
+      </c>
+      <c r="F13">
+        <v>-0.1136507827414784</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.006372033851815025</v>
+        <v>0.005228778956333464</v>
       </c>
       <c r="C14">
-        <v>0.03262183235194744</v>
+        <v>0.0308911270047716</v>
       </c>
       <c r="D14">
-        <v>0.01602586031296795</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02737045800911564</v>
+      </c>
+      <c r="E14">
+        <v>0.02596336163681251</v>
+      </c>
+      <c r="F14">
+        <v>-0.09746449169583216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.001128932090131552</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.003125849892591571</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.004378796036689773</v>
+      </c>
+      <c r="E15">
+        <v>-5.608816465472729e-05</v>
+      </c>
+      <c r="F15">
+        <v>-0.003047486624637592</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.0343262087762787</v>
+        <v>0.03341777366972826</v>
       </c>
       <c r="C16">
-        <v>0.0429985784033077</v>
+        <v>0.04582110765241142</v>
       </c>
       <c r="D16">
-        <v>-0.006968091256147237</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02861193580519651</v>
+      </c>
+      <c r="E16">
+        <v>0.01943075181749791</v>
+      </c>
+      <c r="F16">
+        <v>-0.07052534461297046</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1031,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1051,176 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>-0.02148532543188839</v>
+        <v>0.01599225265327879</v>
       </c>
       <c r="C19">
-        <v>0.06131449496283893</v>
+        <v>0.05049352917585737</v>
       </c>
       <c r="D19">
-        <v>-0.07088470391991447</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.09646501516624643</v>
+      </c>
+      <c r="E19">
+        <v>0.07840097789882682</v>
+      </c>
+      <c r="F19">
+        <v>-0.09188228915076388</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.01299901014946059</v>
+        <v>0.01316315442634758</v>
       </c>
       <c r="C20">
-        <v>0.04364198088108354</v>
+        <v>0.04104356205619912</v>
       </c>
       <c r="D20">
-        <v>-0.01822443788887848</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04089815645489965</v>
+      </c>
+      <c r="E20">
+        <v>0.05537703922176017</v>
+      </c>
+      <c r="F20">
+        <v>-0.08938770540050998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.008564701060980536</v>
+        <v>0.008366708584958832</v>
       </c>
       <c r="C21">
-        <v>0.04738391016483303</v>
+        <v>0.04451529580866403</v>
       </c>
       <c r="D21">
-        <v>-0.03538419726182685</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.06987238724800826</v>
+      </c>
+      <c r="E21">
+        <v>0.07339655641285606</v>
+      </c>
+      <c r="F21">
+        <v>-0.1346047403517683</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.001667122785790584</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02270654961898962</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.0351609058323224</v>
+      </c>
+      <c r="E22">
+        <v>0.01831056320524584</v>
+      </c>
+      <c r="F22">
+        <v>-0.02200252205657812</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.001733716267082657</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02283092081263627</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.034853046822668</v>
+      </c>
+      <c r="E23">
+        <v>0.01859788131437838</v>
+      </c>
+      <c r="F23">
+        <v>-0.02188202646766017</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.02930609084836107</v>
+        <v>0.03295697512616462</v>
       </c>
       <c r="C24">
-        <v>0.04882206000575773</v>
+        <v>0.05375861317445096</v>
       </c>
       <c r="D24">
-        <v>-0.00301771613879705</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02718206346327805</v>
+      </c>
+      <c r="E24">
+        <v>0.01679960581193108</v>
+      </c>
+      <c r="F24">
+        <v>-0.07930279316134167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.04259411951150926</v>
+        <v>0.04265417168230409</v>
       </c>
       <c r="C25">
-        <v>0.05989023534810737</v>
+        <v>0.05792630842300247</v>
       </c>
       <c r="D25">
-        <v>0.007511919290404213</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.0246579048910787</v>
+      </c>
+      <c r="E25">
+        <v>0.01119170535823054</v>
+      </c>
+      <c r="F25">
+        <v>-0.08072127460896561</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.01222731965353913</v>
+        <v>0.01367153310777607</v>
       </c>
       <c r="C26">
-        <v>0.01495888875402419</v>
+        <v>0.01657871670545676</v>
       </c>
       <c r="D26">
-        <v>-0.001735588596665095</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02663044188334953</v>
+      </c>
+      <c r="E26">
+        <v>0.02844746138476908</v>
+      </c>
+      <c r="F26">
+        <v>-0.07430440361712787</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1231,156 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.0870715450576513</v>
+        <v>0.1350245449475199</v>
       </c>
       <c r="C28">
-        <v>-0.2256339208185594</v>
+        <v>-0.2431442146874902</v>
       </c>
       <c r="D28">
-        <v>-0.000815836523087756</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01589262012105622</v>
+      </c>
+      <c r="E28">
+        <v>0.04697551336082822</v>
+      </c>
+      <c r="F28">
+        <v>-0.05673406570048914</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.007830142014679787</v>
+        <v>0.006067379795417832</v>
       </c>
       <c r="C29">
-        <v>0.02582256046347038</v>
+        <v>0.02665997971922356</v>
       </c>
       <c r="D29">
-        <v>0.01637806424428751</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.02193315501436001</v>
+      </c>
+      <c r="E29">
+        <v>0.02762861188012163</v>
+      </c>
+      <c r="F29">
+        <v>-0.08994978794868065</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.05046010760567488</v>
+        <v>0.04157206508125126</v>
       </c>
       <c r="C30">
-        <v>0.05774188796990047</v>
+        <v>0.06486436698457533</v>
       </c>
       <c r="D30">
-        <v>-0.05179719650646347</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1083349972221642</v>
+      </c>
+      <c r="E30">
+        <v>0.03936943388632476</v>
+      </c>
+      <c r="F30">
+        <v>-0.1048626041486521</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.04980471891724276</v>
+        <v>0.05460221175935402</v>
       </c>
       <c r="C31">
-        <v>0.03193669698968198</v>
+        <v>0.05409538790792737</v>
       </c>
       <c r="D31">
-        <v>0.01397679235833699</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.00873500959546546</v>
+      </c>
+      <c r="E31">
+        <v>0.04833406829383504</v>
+      </c>
+      <c r="F31">
+        <v>-0.0824563686558461</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.009508981533442731</v>
+        <v>0.003918036841868144</v>
       </c>
       <c r="C32">
-        <v>0.04423266613283866</v>
+        <v>0.03370511519461528</v>
       </c>
       <c r="D32">
-        <v>-0.0248194150687223</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.04999398878317011</v>
+      </c>
+      <c r="E32">
+        <v>0.0218351776577644</v>
+      </c>
+      <c r="F32">
+        <v>-0.07441251452175872</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.02596112597281778</v>
+        <v>0.02412575891243782</v>
       </c>
       <c r="C33">
-        <v>0.05864049890802851</v>
+        <v>0.05476002850730483</v>
       </c>
       <c r="D33">
-        <v>-0.0324194675853302</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.08126598065384152</v>
+      </c>
+      <c r="E33">
+        <v>0.04917346919441327</v>
+      </c>
+      <c r="F33">
+        <v>-0.1295875171778884</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.04449317495827938</v>
+        <v>0.04096952052376827</v>
       </c>
       <c r="C34">
-        <v>0.06143514052874809</v>
+        <v>0.0641889348622714</v>
       </c>
       <c r="D34">
-        <v>0.003066422488461633</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03467314808404325</v>
+      </c>
+      <c r="E34">
+        <v>-0.006671735446003494</v>
+      </c>
+      <c r="F34">
+        <v>-0.07709221243138743</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1391,36 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.008111288552352242</v>
+        <v>0.01315346761407678</v>
       </c>
       <c r="C36">
-        <v>0.0140520806272679</v>
+        <v>0.0123501157308172</v>
       </c>
       <c r="D36">
-        <v>-0.0005855734493812123</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02856003289632951</v>
+      </c>
+      <c r="E36">
+        <v>0.03435139979006453</v>
+      </c>
+      <c r="F36">
+        <v>-0.08226865036993243</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1431,156 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.02735536504857552</v>
+        <v>0.02411978329018466</v>
       </c>
       <c r="C38">
-        <v>0.02826528883426767</v>
+        <v>0.02492613624298038</v>
       </c>
       <c r="D38">
-        <v>9.441581579947624e-05</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02644984520829014</v>
+      </c>
+      <c r="E38">
+        <v>0.03292528735104749</v>
+      </c>
+      <c r="F38">
+        <v>-0.06891990342598681</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.04069511460145056</v>
+        <v>0.03906623367550762</v>
       </c>
       <c r="C39">
-        <v>0.07197761353591389</v>
+        <v>0.06827406883062359</v>
       </c>
       <c r="D39">
-        <v>-0.02070583485711409</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05280926989811063</v>
+      </c>
+      <c r="E39">
+        <v>0.0193925928934226</v>
+      </c>
+      <c r="F39">
+        <v>-0.09192160253459798</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.01485283904894406</v>
+        <v>0.01541539954471822</v>
       </c>
       <c r="C40">
-        <v>0.03580400040509227</v>
+        <v>0.03999149597772835</v>
       </c>
       <c r="D40">
-        <v>-0.03234122402969306</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03871284204087069</v>
+      </c>
+      <c r="E40">
+        <v>0.06859513968582812</v>
+      </c>
+      <c r="F40">
+        <v>-0.08836803712179098</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.008408567545652463</v>
+        <v>0.01739898043370231</v>
       </c>
       <c r="C41">
-        <v>0.009107333634118029</v>
+        <v>0.006500741590140669</v>
       </c>
       <c r="D41">
-        <v>-0.0009370332319789954</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01669985874349307</v>
+      </c>
+      <c r="E41">
+        <v>0.03715897828501302</v>
+      </c>
+      <c r="F41">
+        <v>-0.07058249275912563</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>-0.001270773629930785</v>
+        <v>0.000834495111337802</v>
       </c>
       <c r="C42">
-        <v>0.006075788580566999</v>
+        <v>0.003297884241952539</v>
       </c>
       <c r="D42">
-        <v>-0.007114856306880783</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.0006727755836858496</v>
+      </c>
+      <c r="E42">
+        <v>0.006497503242588242</v>
+      </c>
+      <c r="F42">
+        <v>0.006288049144141498</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03160242809110422</v>
+        <v>0.02873311391246978</v>
       </c>
       <c r="C43">
-        <v>0.02365587848670432</v>
+        <v>0.02146644687759613</v>
       </c>
       <c r="D43">
-        <v>-0.01268847626324312</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04024480589840519</v>
+      </c>
+      <c r="E43">
+        <v>0.04314599537892323</v>
+      </c>
+      <c r="F43">
+        <v>-0.08486066148196859</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.01757177958871551</v>
+        <v>0.01381007056894525</v>
       </c>
       <c r="C44">
-        <v>0.0564236308236904</v>
+        <v>0.05253095920431157</v>
       </c>
       <c r="D44">
-        <v>-0.01489510270432169</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.0402384245379843</v>
+      </c>
+      <c r="E44">
+        <v>0.0551382796306913</v>
+      </c>
+      <c r="F44">
+        <v>-0.09015283453850174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1591,76 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.0007664433213229147</v>
+        <v>0.007243437224973346</v>
       </c>
       <c r="C46">
-        <v>0.02333854306330461</v>
+        <v>0.02540680209244263</v>
       </c>
       <c r="D46">
-        <v>0.02076985808747683</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.0132243057352759</v>
+      </c>
+      <c r="E46">
+        <v>0.03363261762110986</v>
+      </c>
+      <c r="F46">
+        <v>-0.1038410447966817</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.08076714624994696</v>
+        <v>0.08636096742957736</v>
       </c>
       <c r="C47">
-        <v>0.07148021752853523</v>
+        <v>0.08013267920952236</v>
       </c>
       <c r="D47">
-        <v>0.009346570034733673</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01628701907668311</v>
+      </c>
+      <c r="E47">
+        <v>0.0539071922350569</v>
+      </c>
+      <c r="F47">
+        <v>-0.07950407710381666</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.01714689584395604</v>
+        <v>0.01544588820364251</v>
       </c>
       <c r="C48">
-        <v>0.01268949550149217</v>
+        <v>0.01804429033263667</v>
       </c>
       <c r="D48">
-        <v>0.007338234301822759</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01853110603656264</v>
+      </c>
+      <c r="E48">
+        <v>0.044618590096099</v>
+      </c>
+      <c r="F48">
+        <v>-0.09624665112141086</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1671,56 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.08477340244110378</v>
+        <v>0.07081688373186715</v>
       </c>
       <c r="C50">
-        <v>0.07005100370888369</v>
+        <v>0.07144204472719193</v>
       </c>
       <c r="D50">
-        <v>0.02166827585636157</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.005304821644470962</v>
+      </c>
+      <c r="E50">
+        <v>0.05100488317693368</v>
+      </c>
+      <c r="F50">
+        <v>-0.07398412924992667</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.01208444552211848</v>
+        <v>0.01006068124531961</v>
       </c>
       <c r="C51">
-        <v>0.04962696171256556</v>
+        <v>0.03449111775380855</v>
       </c>
       <c r="D51">
-        <v>-0.007560620083201677</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.04832368107843772</v>
+      </c>
+      <c r="E51">
+        <v>0.02052340307179357</v>
+      </c>
+      <c r="F51">
+        <v>-0.08440433040489347</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1731,196 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.08336029983895844</v>
+        <v>0.09287109788553639</v>
       </c>
       <c r="C53">
-        <v>0.07225840905436727</v>
+        <v>0.08722815551640721</v>
       </c>
       <c r="D53">
-        <v>0.02762408268047022</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03826583330099236</v>
+      </c>
+      <c r="E53">
+        <v>0.05278605513698396</v>
+      </c>
+      <c r="F53">
+        <v>-0.09023802281594458</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.03182272762647208</v>
+        <v>0.02763042982738009</v>
       </c>
       <c r="C54">
-        <v>0.02228930544855569</v>
+        <v>0.02703928377305832</v>
       </c>
       <c r="D54">
-        <v>-0.001044956551205784</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03180756214665898</v>
+      </c>
+      <c r="E54">
+        <v>0.03998860546115235</v>
+      </c>
+      <c r="F54">
+        <v>-0.09659552479501059</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.07347418201375461</v>
+        <v>0.08383444830383291</v>
       </c>
       <c r="C55">
-        <v>0.06390575630704121</v>
+        <v>0.07171870300335327</v>
       </c>
       <c r="D55">
-        <v>0.03194791789641115</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04556698427415345</v>
+      </c>
+      <c r="E55">
+        <v>0.04354568759030603</v>
+      </c>
+      <c r="F55">
+        <v>-0.06582393830531892</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1497792138930517</v>
+        <v>0.145179470648285</v>
       </c>
       <c r="C56">
-        <v>0.09185981222745206</v>
+        <v>0.1058388967215741</v>
       </c>
       <c r="D56">
-        <v>0.03557004422703933</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04868513543345183</v>
+      </c>
+      <c r="E56">
+        <v>0.04686016285638632</v>
+      </c>
+      <c r="F56">
+        <v>-0.05073797811603051</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>-0.000792063585385511</v>
+        <v>0.0001402353927322015</v>
       </c>
       <c r="C57">
-        <v>0.00345445939381491</v>
+        <v>0.00195882971925948</v>
       </c>
       <c r="D57">
-        <v>-0.01852866380983377</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.01618027488068698</v>
+      </c>
+      <c r="E57">
+        <v>0.00762463996159234</v>
+      </c>
+      <c r="F57">
+        <v>-0.0109642389125901</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.07260158507216904</v>
+        <v>0.02824392957044041</v>
       </c>
       <c r="C58">
-        <v>0.0228811732257886</v>
+        <v>0.04066801009687188</v>
       </c>
       <c r="D58">
-        <v>-0.930443294083851</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.4877235160656607</v>
+      </c>
+      <c r="E58">
+        <v>0.692434963568087</v>
+      </c>
+      <c r="F58">
+        <v>0.4517904988091354</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1356662724727407</v>
+        <v>0.146818751974144</v>
       </c>
       <c r="C59">
-        <v>-0.2036397019994445</v>
+        <v>-0.186424007948783</v>
       </c>
       <c r="D59">
-        <v>-0.01589612464212013</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03174604843554679</v>
+      </c>
+      <c r="E59">
+        <v>0.0256230563209663</v>
+      </c>
+      <c r="F59">
+        <v>-0.02230459937933442</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.3095154612678189</v>
+        <v>0.2836745981363858</v>
       </c>
       <c r="C60">
-        <v>0.0936285333647001</v>
+        <v>0.09798723011258864</v>
       </c>
       <c r="D60">
-        <v>-0.01517269708001164</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2039491568123554</v>
+      </c>
+      <c r="E60">
+        <v>-0.2733987778862286</v>
+      </c>
+      <c r="F60">
+        <v>0.1164236532954521</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.03849912973977657</v>
+        <v>0.04017006913764688</v>
       </c>
       <c r="C61">
-        <v>0.06395903025147456</v>
+        <v>0.06255843349232088</v>
       </c>
       <c r="D61">
-        <v>-0.01087312427721165</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04624994869508321</v>
+      </c>
+      <c r="E61">
+        <v>0.02248692002818443</v>
+      </c>
+      <c r="F61">
+        <v>-0.08266479613198878</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +1931,156 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.0145524612794481</v>
+        <v>0.01494760752922828</v>
       </c>
       <c r="C63">
-        <v>0.03562605469732093</v>
+        <v>0.03271033409811468</v>
       </c>
       <c r="D63">
-        <v>0.001918520645128192</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02357067706903168</v>
+      </c>
+      <c r="E63">
+        <v>0.03729496914791113</v>
+      </c>
+      <c r="F63">
+        <v>-0.07764614466175934</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.05217222903942572</v>
+        <v>0.0552666082920803</v>
       </c>
       <c r="C64">
-        <v>0.03795912320524664</v>
+        <v>0.05387034023487171</v>
       </c>
       <c r="D64">
-        <v>0.01010281236942026</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.006571861662520574</v>
+      </c>
+      <c r="E64">
+        <v>0.01973076183094783</v>
+      </c>
+      <c r="F64">
+        <v>-0.08588646969196881</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.095291625490757</v>
+        <v>0.0674108960362501</v>
       </c>
       <c r="C65">
-        <v>0.03709400272591044</v>
+        <v>0.03711245500962816</v>
       </c>
       <c r="D65">
-        <v>-0.04074183818632846</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08581095592040157</v>
+      </c>
+      <c r="E65">
+        <v>0.03350710275563233</v>
+      </c>
+      <c r="F65">
+        <v>-0.02137498374038211</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.06122664197723188</v>
+        <v>0.05137347701088245</v>
       </c>
       <c r="C66">
-        <v>0.1035514876415714</v>
+        <v>0.09125808477928668</v>
       </c>
       <c r="D66">
-        <v>-0.03270953992742535</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.08032925945988612</v>
+      </c>
+      <c r="E66">
+        <v>0.02209626878704525</v>
+      </c>
+      <c r="F66">
+        <v>-0.09435609645195409</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.04946059413659255</v>
+        <v>0.04620829116296796</v>
       </c>
       <c r="C67">
-        <v>0.03334747196851507</v>
+        <v>0.03085173019467338</v>
       </c>
       <c r="D67">
-        <v>0.006194199524684635</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01248365029485864</v>
+      </c>
+      <c r="E67">
+        <v>0.01592321689885753</v>
+      </c>
+      <c r="F67">
+        <v>-0.05378749729106722</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.115863157465721</v>
+        <v>0.1521602165473007</v>
       </c>
       <c r="C68">
-        <v>-0.2893548712776126</v>
+        <v>-0.2518045451020736</v>
       </c>
       <c r="D68">
-        <v>0.002533113814379262</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01783793431357465</v>
+      </c>
+      <c r="E68">
+        <v>0.04252175706741233</v>
+      </c>
+      <c r="F68">
+        <v>-0.01894573115068452</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.08411331019520114</v>
+        <v>0.08607929527528249</v>
       </c>
       <c r="C69">
-        <v>0.0689161197051566</v>
+        <v>0.08670790314510211</v>
       </c>
       <c r="D69">
-        <v>0.03574302444104958</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01186445573494338</v>
+      </c>
+      <c r="E69">
+        <v>0.03007904882735024</v>
+      </c>
+      <c r="F69">
+        <v>-0.09626739856591797</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2091,276 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1177485944564143</v>
+        <v>0.1441558873805482</v>
       </c>
       <c r="C71">
-        <v>-0.2500446923081721</v>
+        <v>-0.2329997764556269</v>
       </c>
       <c r="D71">
-        <v>-0.02445434459515674</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01580051595285127</v>
+      </c>
+      <c r="E71">
+        <v>0.06150714578156319</v>
+      </c>
+      <c r="F71">
+        <v>-0.05789748821130325</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.08356840656629336</v>
+        <v>0.09585837820765122</v>
       </c>
       <c r="C72">
-        <v>0.04884458778700752</v>
+        <v>0.05747585494709693</v>
       </c>
       <c r="D72">
-        <v>0.01160051491242389</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.02032214107688476</v>
+      </c>
+      <c r="E72">
+        <v>0.008779588668343568</v>
+      </c>
+      <c r="F72">
+        <v>-0.08200574983739932</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.4403756476203258</v>
+        <v>0.3477170163757092</v>
       </c>
       <c r="C73">
-        <v>0.05911912005840349</v>
+        <v>0.0763955609184197</v>
       </c>
       <c r="D73">
-        <v>-0.09591583487575477</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4333634933072691</v>
+      </c>
+      <c r="E73">
+        <v>-0.4819477730118216</v>
+      </c>
+      <c r="F73">
+        <v>0.2936150732588632</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1124811262103124</v>
+        <v>0.1105010553715736</v>
       </c>
       <c r="C74">
-        <v>0.10783294304609</v>
+        <v>0.1008619636632085</v>
       </c>
       <c r="D74">
-        <v>0.008582428678956599</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.02919343292385436</v>
+      </c>
+      <c r="E74">
+        <v>0.06229432563073117</v>
+      </c>
+      <c r="F74">
+        <v>-0.05679717628035129</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.2514779327300409</v>
+        <v>0.2557394122376423</v>
       </c>
       <c r="C75">
-        <v>0.1157548641174642</v>
+        <v>0.1371324684943555</v>
       </c>
       <c r="D75">
-        <v>0.05180541687425616</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1278511638931878</v>
+      </c>
+      <c r="E75">
+        <v>0.07326308087918637</v>
+      </c>
+      <c r="F75">
+        <v>-0.01612211822935705</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.1139524240558486</v>
+        <v>0.127925063891535</v>
       </c>
       <c r="C76">
-        <v>0.09161517564654408</v>
+        <v>0.1028156561906756</v>
       </c>
       <c r="D76">
-        <v>0.02738780435461571</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.05743099628129878</v>
+      </c>
+      <c r="E76">
+        <v>0.06687160809120439</v>
+      </c>
+      <c r="F76">
+        <v>-0.0715328352817599</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07687695893533089</v>
+        <v>0.06175399479932418</v>
       </c>
       <c r="C77">
-        <v>0.0571140907218007</v>
+        <v>0.06944335629861523</v>
       </c>
       <c r="D77">
-        <v>-0.05171127933795053</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06435100005618509</v>
+      </c>
+      <c r="E77">
+        <v>0.06671026099563138</v>
+      </c>
+      <c r="F77">
+        <v>-0.1167517579544537</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.04531562484028513</v>
+        <v>0.04357727454816942</v>
       </c>
       <c r="C78">
-        <v>0.04400086190871005</v>
+        <v>0.05525531270640967</v>
       </c>
       <c r="D78">
-        <v>-0.01528737150075784</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07144562783889735</v>
+      </c>
+      <c r="E78">
+        <v>0.02127445006118839</v>
+      </c>
+      <c r="F78">
+        <v>-0.1039242351607889</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02470141499303592</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03817054933158354</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.05907358412319558</v>
+      </c>
+      <c r="E79">
+        <v>0.05149016659654943</v>
+      </c>
+      <c r="F79">
+        <v>-0.04190159740051239</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.04567970071686882</v>
+        <v>0.03420910379544723</v>
       </c>
       <c r="C80">
-        <v>0.05762411668578865</v>
+        <v>0.05566146553592469</v>
       </c>
       <c r="D80">
-        <v>-0.02629916408826024</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04720582486145803</v>
+      </c>
+      <c r="E80">
+        <v>0.009420761148639035</v>
+      </c>
+      <c r="F80">
+        <v>-0.03612539077976312</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1425612481997</v>
+        <v>0.1398365651804812</v>
       </c>
       <c r="C81">
-        <v>0.07367332453690068</v>
+        <v>0.09741757861098657</v>
       </c>
       <c r="D81">
-        <v>0.02604830021142138</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.09514873205379366</v>
+      </c>
+      <c r="E81">
+        <v>0.08183217242724455</v>
+      </c>
+      <c r="F81">
+        <v>-0.02176733678017436</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1380322472519719</v>
+        <v>0.1984807529817683</v>
       </c>
       <c r="C82">
-        <v>0.0563770241220506</v>
+        <v>0.1377798017802683</v>
       </c>
       <c r="D82">
-        <v>0.1209571511166088</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2267261321615849</v>
+      </c>
+      <c r="E82">
+        <v>0.01885110104221085</v>
+      </c>
+      <c r="F82">
+        <v>-0.08562764444023517</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.02725845465278555</v>
+        <v>0.02730460485343128</v>
       </c>
       <c r="C83">
-        <v>0.02138239134443323</v>
+        <v>0.04041021674261508</v>
       </c>
       <c r="D83">
-        <v>-0.01716042451962305</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03555870169520962</v>
+      </c>
+      <c r="E83">
+        <v>0.008988616248648223</v>
+      </c>
+      <c r="F83">
+        <v>-0.04964864278061026</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2371,236 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.2262582867744575</v>
+        <v>0.204163444183815</v>
       </c>
       <c r="C85">
-        <v>0.1067371973613891</v>
+        <v>0.1219078369444349</v>
       </c>
       <c r="D85">
-        <v>0.09187648819150934</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.102241660525739</v>
+      </c>
+      <c r="E85">
+        <v>0.004575827764513299</v>
+      </c>
+      <c r="F85">
+        <v>0.01726609169235768</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.005319812671523973</v>
+        <v>0.01192256685063177</v>
       </c>
       <c r="C86">
-        <v>0.02565684349509942</v>
+        <v>0.03024124017893541</v>
       </c>
       <c r="D86">
-        <v>-0.02688230850761243</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.07132337954085337</v>
+      </c>
+      <c r="E86">
+        <v>0.04191198167582953</v>
+      </c>
+      <c r="F86">
+        <v>-0.1365867386605688</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.01736766086783037</v>
+        <v>0.02095207254589502</v>
       </c>
       <c r="C87">
-        <v>0.01694504177912397</v>
+        <v>0.02185561257162401</v>
       </c>
       <c r="D87">
-        <v>-0.09144795509273645</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09271416998211295</v>
+      </c>
+      <c r="E87">
+        <v>0.08705808425370599</v>
+      </c>
+      <c r="F87">
+        <v>-0.09497889390437789</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.105563804475055</v>
+        <v>0.09102341565154964</v>
       </c>
       <c r="C88">
-        <v>0.0695759538956138</v>
+        <v>0.06355187481238729</v>
       </c>
       <c r="D88">
-        <v>0.0152213315536897</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01168377746269648</v>
+      </c>
+      <c r="E88">
+        <v>0.03501117639916219</v>
+      </c>
+      <c r="F88">
+        <v>-0.07333691335070765</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1766315946610801</v>
+        <v>0.2244403361962611</v>
       </c>
       <c r="C89">
-        <v>-0.3756872330988872</v>
+        <v>-0.3785538044225732</v>
       </c>
       <c r="D89">
-        <v>0.02435320270643769</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01454702539845823</v>
+      </c>
+      <c r="E89">
+        <v>0.04021659354905943</v>
+      </c>
+      <c r="F89">
+        <v>-0.09720903930225376</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1746326974677601</v>
+        <v>0.2029049539919622</v>
       </c>
       <c r="C90">
-        <v>-0.3468119757832007</v>
+        <v>-0.3147520190878618</v>
       </c>
       <c r="D90">
-        <v>0.0100079612748717</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01304798653830892</v>
+      </c>
+      <c r="E90">
+        <v>0.06701296542093138</v>
+      </c>
+      <c r="F90">
+        <v>-0.04676778211972684</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1943360258495672</v>
+        <v>0.1863760310334041</v>
       </c>
       <c r="C91">
-        <v>0.1128830501814357</v>
+        <v>0.140103505046978</v>
       </c>
       <c r="D91">
-        <v>0.0525654739108935</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1048928062623478</v>
+      </c>
+      <c r="E91">
+        <v>0.06476503145228497</v>
+      </c>
+      <c r="F91">
+        <v>-0.03695354353533153</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1686399376116386</v>
+        <v>0.1828000043019271</v>
       </c>
       <c r="C92">
-        <v>-0.2923153761702679</v>
+        <v>-0.2797835939921965</v>
       </c>
       <c r="D92">
-        <v>0.01324015205411445</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.002778755219968727</v>
+      </c>
+      <c r="E92">
+        <v>0.07141385461640044</v>
+      </c>
+      <c r="F92">
+        <v>-0.08240654157849202</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.2007297283337442</v>
+        <v>0.2268200127071959</v>
       </c>
       <c r="C93">
-        <v>-0.3367468022121787</v>
+        <v>-0.3184311280516532</v>
       </c>
       <c r="D93">
-        <v>0.003703961139566027</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.0001467643019952435</v>
+      </c>
+      <c r="E93">
+        <v>0.05152242486874471</v>
+      </c>
+      <c r="F93">
+        <v>-0.04449725152440691</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.3190360040780624</v>
+        <v>0.3412984183824361</v>
       </c>
       <c r="C94">
-        <v>0.1684712910068071</v>
+        <v>0.1897325277895321</v>
       </c>
       <c r="D94">
-        <v>0.1980268714088226</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4754798907762684</v>
+      </c>
+      <c r="E94">
+        <v>0.1507019741321081</v>
+      </c>
+      <c r="F94">
+        <v>0.4438738939054908</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.09373066086532936</v>
+        <v>0.08409758477527751</v>
       </c>
       <c r="C95">
-        <v>0.08360177889477383</v>
+        <v>0.06835494054826459</v>
       </c>
       <c r="D95">
-        <v>-0.05658701654365341</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1577931517567254</v>
+      </c>
+      <c r="E95">
+        <v>-0.1262590374118728</v>
+      </c>
+      <c r="F95">
+        <v>-0.1721979068151158</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2611,16 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2631,36 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1936743629519622</v>
+        <v>0.1884641597531446</v>
       </c>
       <c r="C98">
-        <v>0.01546870402799631</v>
+        <v>0.04119282701947173</v>
       </c>
       <c r="D98">
-        <v>-0.05140087189423054</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1766078712147911</v>
+      </c>
+      <c r="E98">
+        <v>-0.1566716896651323</v>
+      </c>
+      <c r="F98">
+        <v>0.04444895772829203</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2671,16 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2691,56 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.007740365083949454</v>
+        <v>0.006082934682243722</v>
       </c>
       <c r="C101">
-        <v>0.02582488730686837</v>
+        <v>0.02642800634090709</v>
       </c>
       <c r="D101">
-        <v>0.01652742005659169</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.02137878768967938</v>
+      </c>
+      <c r="E101">
+        <v>0.02824908313830771</v>
+      </c>
+      <c r="F101">
+        <v>-0.08969298856346906</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
-        <v>-0.1243247747539736</v>
+        <v>0.1239340006042375</v>
       </c>
       <c r="C102">
-        <v>0.07353619752744116</v>
+        <v>0.09975733068190251</v>
       </c>
       <c r="D102">
-        <v>0.03264272751555564</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05071372774972056</v>
+      </c>
+      <c r="E102">
+        <v>-0.007845023927339814</v>
+      </c>
+      <c r="F102">
+        <v>-0.03984915237727078</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
